--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="389">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Pulse Rate - Rhythm</t>
-  </si>
-  <si>
-    <t>Pulse Rate - Quality</t>
   </si>
   <si>
     <t>271649006</t>
@@ -558,9 +555,6 @@
   </si>
   <si>
     <t>External Cause/s of Injury/ies: Others</t>
-  </si>
-  <si>
-    <t>FOR TRANSPORT/VEHICULAR ACCIDENT ONLY (Land, Water, Air)</t>
   </si>
   <si>
     <t>80943009</t>
@@ -1463,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,626 +1637,602 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2292,106 +2262,106 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2421,98 +2391,98 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2500,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
@@ -2538,82 +2508,82 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2631,243 +2601,243 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>274</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>275</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>265</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>276</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>277</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>267</v>
-      </c>
-      <c r="D1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>278</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="G1" t="s" s="1">
         <v>279</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>280</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>47</v>
@@ -2876,2402 +2846,2402 @@
         <v>48</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>49</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>51</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>53</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>55</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>57</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>59</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>63</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>65</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>67</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="E27" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="F27" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D32" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="E32" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="F32" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C96" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="E96" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="D96" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="E96" t="s" s="2">
-        <v>376</v>
-      </c>
       <c r="F96" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="283">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -109,55 +109,55 @@
     <t>405796007</t>
   </si>
   <si>
-    <t>TIme Received</t>
+    <t>Time of call for help</t>
   </si>
   <si>
     <t>405798008</t>
   </si>
   <si>
-    <t>Time On Scene</t>
+    <t>Time of arrival of emergency services</t>
   </si>
   <si>
     <t>405799000</t>
   </si>
   <si>
-    <t>Time of Hospital Arrival</t>
+    <t>Time of arrival at hospital</t>
   </si>
   <si>
     <t>1269489004</t>
   </si>
   <si>
-    <t>Reported Complaint</t>
+    <t>Chief complaint</t>
   </si>
   <si>
     <t>398099009</t>
   </si>
   <si>
-    <t>Incident Location - House No. and Street</t>
+    <t>Street address</t>
   </si>
   <si>
     <t>397663001</t>
   </si>
   <si>
-    <t>Call Source</t>
+    <t>Referral source</t>
   </si>
   <si>
     <t>184096005</t>
   </si>
   <si>
-    <t>Patient Name - Last</t>
+    <t>Patient surname</t>
   </si>
   <si>
     <t>184095009</t>
   </si>
   <si>
-    <t>Patient Name - First</t>
+    <t>Patient forename</t>
   </si>
   <si>
     <t>405622006</t>
   </si>
   <si>
-    <t>Patient Name - Middle</t>
+    <t>Patient middle name</t>
   </si>
   <si>
     <t>397669002</t>
@@ -169,91 +169,91 @@
     <t>184100006</t>
   </si>
   <si>
-    <t>Sex</t>
+    <t>Patient sex</t>
   </si>
   <si>
     <t>734005006</t>
   </si>
   <si>
-    <t>Tel. No.</t>
+    <t>Telephone number</t>
   </si>
   <si>
     <t>417662000</t>
   </si>
   <si>
-    <t>Medical History</t>
+    <t>History of clinical finding in subject</t>
   </si>
   <si>
     <t>513881000000106</t>
   </si>
   <si>
-    <t>Current Medication</t>
+    <t>Current medication as reported by patient</t>
   </si>
   <si>
     <t>609328004</t>
   </si>
   <si>
-    <t>Known Allergies</t>
+    <t>Allergic disposition</t>
   </si>
   <si>
     <t>86290005</t>
   </si>
   <si>
-    <t>Respiratory Rate</t>
+    <t>Respiratory rate</t>
   </si>
   <si>
     <t>248582003</t>
   </si>
   <si>
-    <t>Respiratory Rate - Rhythm</t>
+    <t>Rhythm of respiration</t>
   </si>
   <si>
     <t>52653008</t>
   </si>
   <si>
-    <t>Respiratory Rate - Breath Sounds</t>
+    <t>Respiratory sounds</t>
   </si>
   <si>
     <t>78564009</t>
   </si>
   <si>
-    <t>Pulse Rate</t>
+    <t>Pulse rate</t>
   </si>
   <si>
     <t>364095004</t>
   </si>
   <si>
-    <t>Pulse Rate - Rhythm</t>
+    <t>Pulse rhythm</t>
   </si>
   <si>
     <t>271649006</t>
   </si>
   <si>
-    <t>Blood Pressure - Systolic</t>
+    <t>Systolic blood pressure</t>
   </si>
   <si>
     <t>271650006</t>
   </si>
   <si>
-    <t>Blood Pressure - Diastolic</t>
+    <t>Diastolic blood pressure</t>
   </si>
   <si>
     <t>386725007</t>
   </si>
   <si>
-    <t>Temperature</t>
+    <t>Body temperature</t>
   </si>
   <si>
     <t>6942003</t>
   </si>
   <si>
-    <t>Level of Consciousness</t>
+    <t>Level of consciousness</t>
   </si>
   <si>
     <t>271733001</t>
   </si>
   <si>
-    <t>Pupils</t>
+    <t>Pupil reaction</t>
   </si>
   <si>
     <t>3415004</t>
@@ -265,25 +265,25 @@
     <t>281395000</t>
   </si>
   <si>
-    <t>Eyes</t>
+    <t>Glasgow Coma Score eye opening subscore</t>
   </si>
   <si>
     <t>281397008</t>
   </si>
   <si>
-    <t>Verbal</t>
+    <t>Glasgow Coma Scale verbal response subscore</t>
   </si>
   <si>
     <t>281396004</t>
   </si>
   <si>
-    <t>Motor</t>
+    <t>Glasgow Coma Scale motor response subscore</t>
   </si>
   <si>
     <t>248241002</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Glasgow coma score</t>
   </si>
   <si>
     <t>55607006</t>
@@ -295,374 +295,373 @@
     <t>119270007</t>
   </si>
   <si>
-    <t>Intervention</t>
+    <t>Management procedure</t>
   </si>
   <si>
     <t>397897005</t>
   </si>
   <si>
-    <t>Treatment Officer</t>
+    <t>Paramedic</t>
   </si>
   <si>
     <t>159738005</t>
   </si>
   <si>
-    <t>Transport Officer</t>
+    <t>Ambulanceman</t>
   </si>
   <si>
     <t>22515006</t>
   </si>
   <si>
-    <t>Assistant</t>
+    <t>Medical assistant</t>
   </si>
   <si>
     <t>36030000</t>
   </si>
   <si>
-    <t>Vehicle Used</t>
+    <t>Transport vehicle</t>
   </si>
   <si>
     <t>184107009</t>
   </si>
   <si>
-    <t>Hospital Patient ID No.</t>
+    <t>Patient hospital number</t>
   </si>
   <si>
     <t>722248002</t>
   </si>
   <si>
-    <t>Hospital Case No.</t>
+    <t>Patient hospital visit number</t>
   </si>
   <si>
     <t>116154003</t>
   </si>
   <si>
-    <t>Type of Patient</t>
+    <t>Patient</t>
   </si>
   <si>
     <t>184099003</t>
   </si>
   <si>
-    <t>Birth Date</t>
+    <t>Date of birth</t>
   </si>
   <si>
     <t>439771001</t>
   </si>
   <si>
-    <t>Date of Injury</t>
+    <t>Date of event</t>
   </si>
   <si>
     <t>263501003</t>
   </si>
   <si>
-    <t>Time of Injury</t>
+    <t>Time of onset</t>
   </si>
   <si>
     <t>406543005</t>
   </si>
   <si>
-    <t>Date of Consultation</t>
+    <t>Date of visit</t>
   </si>
   <si>
     <t>406544004</t>
   </si>
   <si>
-    <t>Time of Consultation</t>
+    <t>Time of visit</t>
   </si>
   <si>
     <t>386308007</t>
   </si>
   <si>
-    <t>First Aid Given</t>
+    <t>First aid</t>
   </si>
   <si>
     <t>262519004</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Multiple Injury/ies?</t>
+    <t>Multiple injuries</t>
   </si>
   <si>
     <t>399963005</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Abrasion</t>
+    <t>Abrasion</t>
   </si>
   <si>
     <t>284554003</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Avulsion</t>
+    <t>Avulsion - injury</t>
   </si>
   <si>
     <t>125666000</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Burn</t>
+    <t>Burn</t>
   </si>
   <si>
     <t>77140003</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Burn 1st Degree</t>
+    <t>First degree burn injury</t>
   </si>
   <si>
     <t>46541008</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Burn 2nd Degree</t>
+    <t>Second degree burn injury</t>
   </si>
   <si>
     <t>80247002</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Burn 3rd Degree</t>
+    <t>Third degree burn injury</t>
   </si>
   <si>
     <t>770400008</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Burn 4th Degree</t>
+    <t>Fourth degree burn injury</t>
   </si>
   <si>
     <t>110030002</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Concussion</t>
+    <t>Concussion injury of brain</t>
   </si>
   <si>
     <t>125667009</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Contusion</t>
+    <t>Contusion</t>
   </si>
   <si>
     <t>125605004</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Fracture</t>
+    <t>Fracture of bone</t>
   </si>
   <si>
     <t>423125000</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Fracture Closed Type</t>
+    <t>Closed fracture</t>
   </si>
   <si>
     <t>397181002</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Fracture Open Type</t>
+    <t>Open fracture</t>
   </si>
   <si>
     <t>125643001</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Open Wound
-ex. hacking, gunshot, stabbing, animal (dog, cat, rat, snake, etc) bites, human bites, insect bites, punctured wound laceration, etc</t>
+    <t>Open wound</t>
   </si>
   <si>
     <t>262595009</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Traumatic Amputation</t>
+    <t>Traumatic amputation</t>
   </si>
   <si>
     <t>417163006</t>
   </si>
   <si>
-    <t>Nature of Injury/ies: Specific Injury/ies - Others</t>
+    <t>Traumatic or non-traumatic injury</t>
   </si>
   <si>
     <t>242651001</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Bites/stings</t>
+    <t>Injury caused by animal</t>
   </si>
   <si>
     <t>242490006</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Burns</t>
+    <t>Burning due to contact with hot substance</t>
   </si>
   <si>
     <t>133261000119105</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Chemical/substance</t>
+    <t>Exposure to potentially hazardous substance</t>
   </si>
   <si>
     <t>69129000</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Contact with sharp objects</t>
+    <t>Struck by sharp object</t>
   </si>
   <si>
     <t>40947009</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Drowning</t>
+    <t>Drowning</t>
   </si>
   <si>
     <t>276746005</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Exposure to forces of nature</t>
+    <t>Environmental event</t>
   </si>
   <si>
     <t>1912002</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Fall</t>
+    <t>Fall</t>
   </si>
   <si>
     <t>218100007</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Firecracker</t>
+    <t>Accident caused by fireworks</t>
   </si>
   <si>
     <t>63409001</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Gunshot</t>
+    <t>Struck by firearm discharge</t>
   </si>
   <si>
     <t>212976008</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Hanging/Strangulation</t>
+    <t>Asphyxia by strangulation</t>
   </si>
   <si>
     <t>52684005</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Mauling/Assault</t>
+    <t>Assault</t>
   </si>
   <si>
     <t>248110007</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Sexual Assault/ Sexual Abuse/ Rape (Alleged)</t>
+    <t>Sexual assault</t>
   </si>
   <si>
     <t>274215009</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Transport /Vehicular Accident</t>
+    <t>Transport accident</t>
   </si>
   <si>
     <t>773760007</t>
   </si>
   <si>
-    <t>External Cause/s of Injury/ies: Others</t>
+    <t>Traumatic event</t>
   </si>
   <si>
     <t>80943009</t>
   </si>
   <si>
-    <t>Other risk factors at the time of the incident</t>
+    <t>Risk factor</t>
   </si>
   <si>
     <t>386812007</t>
   </si>
   <si>
-    <t>Safety</t>
+    <t>Safety precautions</t>
   </si>
   <si>
     <t>307836003</t>
   </si>
   <si>
-    <t>Referred by another Hospital /Facility for Laboratory and/or other medical procedures</t>
+    <t>Referral by establishment</t>
   </si>
   <si>
     <t>118223001</t>
   </si>
   <si>
-    <t>Status upon reaching Facility/Hospital</t>
+    <t>Patient status finding</t>
   </si>
   <si>
     <t>106167005</t>
   </si>
   <si>
-    <t>Status upon reaching Facility/Hospital - If alive,please check if</t>
+    <t>Consciousness related finding</t>
   </si>
   <si>
     <t>148006</t>
   </si>
   <si>
-    <t>Initial Impression</t>
+    <t>Preliminary diagnosis</t>
   </si>
   <si>
     <t>418138009</t>
   </si>
   <si>
-    <t>Outcome</t>
+    <t>Patient condition finding</t>
   </si>
   <si>
     <t>89100005</t>
   </si>
   <si>
-    <t>Complete Final Diagnosis</t>
+    <t>Final diagnosis (discharge)</t>
   </si>
   <si>
     <t>159679004</t>
   </si>
   <si>
-    <t>Presence of traffic investigator</t>
+    <t>Traffic warden</t>
   </si>
   <si>
     <t>273887006</t>
   </si>
   <si>
-    <t>Priority to Scene (Triage)</t>
+    <t>Triage index</t>
   </si>
   <si>
     <t>260870009</t>
   </si>
   <si>
-    <t>Priority Level (Urgency)</t>
+    <t>Priority</t>
   </si>
   <si>
     <t>278443006</t>
   </si>
   <si>
-    <t>Cause of Road Crash Incident</t>
+    <t>Cause of accident type</t>
   </si>
   <si>
     <t>364703007</t>
   </si>
   <si>
-    <t>Profession of Victim</t>
+    <t>Employment detail</t>
   </si>
   <si>
     <t>373786007</t>
   </si>
   <si>
-    <t>Sources of delays</t>
+    <t>Reasons for treatment delay</t>
   </si>
   <si>
     <t>218247007</t>
   </si>
   <si>
-    <t>Long term outcome of patient</t>
+    <t>Late effect of motor vehicle accident</t>
   </si>
   <si>
     <t>408919008</t>
   </si>
   <si>
-    <t>Psychosocial support/condition</t>
+    <t>Psychosocial care</t>
   </si>
   <si>
     <t>360000005</t>
   </si>
   <si>
-    <t>CCTV video, reconstruction of what happened</t>
+    <t>Closed circuit television</t>
   </si>
   <si>
     <t>167009006</t>
   </si>
   <si>
-    <t>Blood Alcohol Concentration</t>
+    <t>Blood ethanol measurement</t>
   </si>
   <si>
     <t/>
@@ -677,67 +676,67 @@
     <t>30976-5</t>
   </si>
   <si>
-    <t>Date Received</t>
+    <t>Date received Form</t>
   </si>
   <si>
     <t>69472-9</t>
   </si>
   <si>
-    <t>Time Enroute</t>
+    <t>Unit responded [Date and time] Vehicle</t>
   </si>
   <si>
     <t>69475-2</t>
   </si>
   <si>
-    <t>Time Departed</t>
+    <t>Responding unit left the scene with a patient [Date and time] Vehicle</t>
   </si>
   <si>
     <t>11288-8</t>
   </si>
   <si>
-    <t>Time of Emergency Station Arrival</t>
+    <t>Arrival time documented</t>
   </si>
   <si>
     <t>90123-1</t>
   </si>
   <si>
-    <t>Team Leader</t>
+    <t>Response team leader name</t>
   </si>
   <si>
     <t>11375-3</t>
   </si>
   <si>
-    <t>Injury Intent</t>
+    <t>Injury intent</t>
   </si>
   <si>
     <t>95376-0</t>
   </si>
   <si>
-    <t>Specify animal/insect</t>
+    <t>Type of animal exposed to</t>
   </si>
   <si>
     <t>11372-0</t>
   </si>
   <si>
-    <t>Activity of the Patient at the time of the incident</t>
+    <t>Injury associated activity</t>
   </si>
   <si>
     <t>74199-1</t>
   </si>
   <si>
-    <t>Transferred from another hospital/facility</t>
+    <t>Transferred from another acute care facility [NTDS]</t>
   </si>
   <si>
     <t>74286-6</t>
   </si>
   <si>
-    <t>Mode of transport to the Hospital/Facility</t>
+    <t>Transport mode to hospital [NTDS]</t>
   </si>
   <si>
     <t>77999-1</t>
   </si>
   <si>
-    <t>Comments</t>
+    <t>Case notification comment</t>
   </si>
   <si>
     <t>http://loinc.org</t>
@@ -746,19 +745,19 @@
     <t>INJURYFRONT</t>
   </si>
   <si>
-    <t>Front</t>
+    <t>Site of Injury/Pain - Front Part of Body</t>
   </si>
   <si>
     <t>INJURYBACK</t>
   </si>
   <si>
-    <t>Back</t>
+    <t>Site of Injury/Pain - Back Part of Body</t>
   </si>
   <si>
     <t>RRFREMARKS</t>
   </si>
   <si>
-    <t>Remarks</t>
+    <t>Run Report Form Remarks</t>
   </si>
   <si>
     <t>MVA-COLLISION</t>
@@ -794,13 +793,13 @@
     <t>COLLISIONTYPE</t>
   </si>
   <si>
-    <t>Collision type</t>
+    <t>Collision Type</t>
   </si>
   <si>
     <t>COORDINATIONDONE</t>
   </si>
   <si>
-    <t>Was Transpo Coordinated with Receiving Hospital?</t>
+    <t>Was Transport Coordinated with Receiving Hospital?</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem</t>
@@ -866,325 +865,7 @@
     <t>http://snomed.info/sct/900000000000207008/version/20241001</t>
   </si>
   <si>
-    <t>Time of call for help</t>
-  </si>
-  <si>
-    <t>Time of arrival of emergency services</t>
-  </si>
-  <si>
-    <t>Time of arrival at hospital</t>
-  </si>
-  <si>
-    <t>Chief complaint</t>
-  </si>
-  <si>
-    <t>Street address</t>
-  </si>
-  <si>
-    <t>Referral source</t>
-  </si>
-  <si>
-    <t>Patient surname</t>
-  </si>
-  <si>
-    <t>Patient forename</t>
-  </si>
-  <si>
-    <t>Patient middle name</t>
-  </si>
-  <si>
-    <t>Patient sex</t>
-  </si>
-  <si>
-    <t>Telephone number</t>
-  </si>
-  <si>
-    <t>History of clinical finding in subject</t>
-  </si>
-  <si>
-    <t>Current medication as reported by patient</t>
-  </si>
-  <si>
-    <t>Allergic disposition</t>
-  </si>
-  <si>
-    <t>Respiratory rate</t>
-  </si>
-  <si>
-    <t>Rhythm of respiration</t>
-  </si>
-  <si>
-    <t>Respiratory sounds</t>
-  </si>
-  <si>
-    <t>Pulse rate</t>
-  </si>
-  <si>
-    <t>Pulse rhythm</t>
-  </si>
-  <si>
-    <t>Systolic blood pressure</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure</t>
-  </si>
-  <si>
-    <t>Body temperature</t>
-  </si>
-  <si>
-    <t>Level of consciousness</t>
-  </si>
-  <si>
-    <t>Pupil reaction</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Score eye opening subscore</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale verbal response subscore</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale motor response subscore</t>
-  </si>
-  <si>
-    <t>Glasgow coma score</t>
-  </si>
-  <si>
-    <t>Management procedure</t>
-  </si>
-  <si>
-    <t>Paramedic</t>
-  </si>
-  <si>
-    <t>Ambulanceman</t>
-  </si>
-  <si>
-    <t>Medical assistant</t>
-  </si>
-  <si>
-    <t>Transport vehicle</t>
-  </si>
-  <si>
-    <t>Patient hospital number</t>
-  </si>
-  <si>
-    <t>Patient hospital visit number</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Date of birth</t>
-  </si>
-  <si>
-    <t>Date of event</t>
-  </si>
-  <si>
-    <t>Time of onset</t>
-  </si>
-  <si>
-    <t>Date of visit</t>
-  </si>
-  <si>
-    <t>Time of visit</t>
-  </si>
-  <si>
-    <t>First aid</t>
-  </si>
-  <si>
-    <t>Multiple injuries</t>
-  </si>
-  <si>
-    <t>Abrasion</t>
-  </si>
-  <si>
-    <t>Avulsion - injury</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>First degree burn injury</t>
-  </si>
-  <si>
-    <t>Second degree burn injury</t>
-  </si>
-  <si>
-    <t>Third degree burn injury</t>
-  </si>
-  <si>
-    <t>Fourth degree burn injury</t>
-  </si>
-  <si>
-    <t>Concussion injury of brain</t>
-  </si>
-  <si>
-    <t>Contusion</t>
-  </si>
-  <si>
-    <t>Fracture of bone</t>
-  </si>
-  <si>
-    <t>Closed fracture</t>
-  </si>
-  <si>
-    <t>Open fracture</t>
-  </si>
-  <si>
-    <t>Open wound</t>
-  </si>
-  <si>
-    <t>Traumatic amputation</t>
-  </si>
-  <si>
-    <t>Traumatic or non-traumatic injury</t>
-  </si>
-  <si>
-    <t>Injury caused by animal</t>
-  </si>
-  <si>
-    <t>Burning due to contact with hot substance</t>
-  </si>
-  <si>
-    <t>Exposure to potentially hazardous substance</t>
-  </si>
-  <si>
-    <t>Struck by sharp object</t>
-  </si>
-  <si>
-    <t>Drowning</t>
-  </si>
-  <si>
-    <t>Environmental event</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Accident caused by fireworks</t>
-  </si>
-  <si>
-    <t>Struck by firearm discharge</t>
-  </si>
-  <si>
-    <t>Asphyxia by strangulation</t>
-  </si>
-  <si>
-    <t>Assault</t>
-  </si>
-  <si>
-    <t>Sexual assault</t>
-  </si>
-  <si>
-    <t>Transport accident</t>
-  </si>
-  <si>
-    <t>Traumatic event</t>
-  </si>
-  <si>
-    <t>Risk factor</t>
-  </si>
-  <si>
-    <t>Safety precautions</t>
-  </si>
-  <si>
-    <t>Referral by establishment</t>
-  </si>
-  <si>
-    <t>Patient status finding</t>
-  </si>
-  <si>
-    <t>Consciousness related finding</t>
-  </si>
-  <si>
-    <t>Preliminary diagnosis</t>
-  </si>
-  <si>
-    <t>Patient condition finding</t>
-  </si>
-  <si>
-    <t>Final diagnosis (discharge)</t>
-  </si>
-  <si>
-    <t>Traffic warden</t>
-  </si>
-  <si>
-    <t>Triage index</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Cause of accident type</t>
-  </si>
-  <si>
-    <t>Employment detail</t>
-  </si>
-  <si>
-    <t>Reasons for treatment delay</t>
-  </si>
-  <si>
-    <t>Late effect of motor vehicle accident</t>
-  </si>
-  <si>
-    <t>Psychosocial care</t>
-  </si>
-  <si>
-    <t>Closed circuit television</t>
-  </si>
-  <si>
-    <t>Blood ethanol measurement</t>
-  </si>
-  <si>
     <t>2.78</t>
-  </si>
-  <si>
-    <t>Date received Form</t>
-  </si>
-  <si>
-    <t>Unit responded [Date and time] Vehicle</t>
-  </si>
-  <si>
-    <t>Responding unit left the scene with a patient [Date and time] Vehicle</t>
-  </si>
-  <si>
-    <t>Arrival time documented</t>
-  </si>
-  <si>
-    <t>Response team leader name</t>
-  </si>
-  <si>
-    <t>Injury intent</t>
-  </si>
-  <si>
-    <t>Type of animal exposed to</t>
-  </si>
-  <si>
-    <t>Injury associated activity</t>
-  </si>
-  <si>
-    <t>Transferred from another acute care facility [NTDS]</t>
-  </si>
-  <si>
-    <t>Transport mode to hospital [NTDS]</t>
-  </si>
-  <si>
-    <t>Case notification comment</t>
-  </si>
-  <si>
-    <t>Site of Injury/Pain - Front Part of Body</t>
-  </si>
-  <si>
-    <t>Site of Injury/Pain - Back Part of Body</t>
-  </si>
-  <si>
-    <t>Run Report Form Remarks</t>
-  </si>
-  <si>
-    <t>Collision Type</t>
-  </si>
-  <si>
-    <t>Was Transport Coordinated with Receiving Hospital?</t>
   </si>
 </sst>
 </file>
@@ -2636,7 +2317,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
         <v>273</v>
@@ -2659,7 +2340,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>273</v>
@@ -2682,7 +2363,7 @@
         <v>33</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>273</v>
@@ -2705,7 +2386,7 @@
         <v>35</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>273</v>
@@ -2728,7 +2409,7 @@
         <v>37</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>273</v>
@@ -2751,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>273</v>
@@ -2774,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>273</v>
@@ -2797,7 +2478,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>289</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>273</v>
@@ -2820,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>290</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>273</v>
@@ -2866,7 +2547,7 @@
         <v>49</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>291</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>273</v>
@@ -2889,7 +2570,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>273</v>
@@ -2912,7 +2593,7 @@
         <v>53</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>273</v>
@@ -2935,7 +2616,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>294</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>273</v>
@@ -2958,7 +2639,7 @@
         <v>57</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>273</v>
@@ -2981,7 +2662,7 @@
         <v>59</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>296</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>273</v>
@@ -3004,7 +2685,7 @@
         <v>61</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>273</v>
@@ -3027,7 +2708,7 @@
         <v>63</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>298</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>273</v>
@@ -3050,7 +2731,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>273</v>
@@ -3073,7 +2754,7 @@
         <v>67</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>300</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>273</v>
@@ -3096,7 +2777,7 @@
         <v>69</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>301</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>273</v>
@@ -3119,7 +2800,7 @@
         <v>71</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>302</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>273</v>
@@ -3142,7 +2823,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>273</v>
@@ -3165,7 +2846,7 @@
         <v>75</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>304</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>273</v>
@@ -3188,7 +2869,7 @@
         <v>77</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>273</v>
@@ -3234,7 +2915,7 @@
         <v>81</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>306</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>273</v>
@@ -3257,7 +2938,7 @@
         <v>83</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>307</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>273</v>
@@ -3280,7 +2961,7 @@
         <v>85</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>308</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>273</v>
@@ -3303,7 +2984,7 @@
         <v>87</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>273</v>
@@ -3349,7 +3030,7 @@
         <v>91</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>273</v>
@@ -3372,7 +3053,7 @@
         <v>93</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>311</v>
+        <v>94</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>273</v>
@@ -3395,7 +3076,7 @@
         <v>95</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>312</v>
+        <v>96</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>273</v>
@@ -3418,7 +3099,7 @@
         <v>97</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>313</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>273</v>
@@ -3441,7 +3122,7 @@
         <v>99</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>273</v>
@@ -3464,7 +3145,7 @@
         <v>101</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>315</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>273</v>
@@ -3487,7 +3168,7 @@
         <v>103</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>273</v>
@@ -3510,7 +3191,7 @@
         <v>105</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>317</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>273</v>
@@ -3533,7 +3214,7 @@
         <v>107</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>318</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>273</v>
@@ -3556,7 +3237,7 @@
         <v>109</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>273</v>
@@ -3579,7 +3260,7 @@
         <v>111</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>320</v>
+        <v>112</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>273</v>
@@ -3602,7 +3283,7 @@
         <v>113</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>321</v>
+        <v>114</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>273</v>
@@ -3625,7 +3306,7 @@
         <v>115</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>273</v>
@@ -3648,7 +3329,7 @@
         <v>117</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>323</v>
+        <v>118</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>273</v>
@@ -3671,7 +3352,7 @@
         <v>119</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>324</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>273</v>
@@ -3694,7 +3375,7 @@
         <v>121</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>325</v>
+        <v>122</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>273</v>
@@ -3717,7 +3398,7 @@
         <v>123</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>326</v>
+        <v>124</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>273</v>
@@ -3740,7 +3421,7 @@
         <v>125</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>327</v>
+        <v>126</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>273</v>
@@ -3763,7 +3444,7 @@
         <v>127</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>328</v>
+        <v>128</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>273</v>
@@ -3786,7 +3467,7 @@
         <v>129</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>329</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>273</v>
@@ -3809,7 +3490,7 @@
         <v>131</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>330</v>
+        <v>132</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>273</v>
@@ -3832,7 +3513,7 @@
         <v>133</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>331</v>
+        <v>134</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>273</v>
@@ -3855,7 +3536,7 @@
         <v>135</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>273</v>
@@ -3878,7 +3559,7 @@
         <v>137</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>333</v>
+        <v>138</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>273</v>
@@ -3901,7 +3582,7 @@
         <v>139</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>334</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>273</v>
@@ -3924,7 +3605,7 @@
         <v>141</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>273</v>
@@ -3947,7 +3628,7 @@
         <v>143</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>273</v>
@@ -3970,7 +3651,7 @@
         <v>145</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>337</v>
+        <v>146</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>273</v>
@@ -3993,7 +3674,7 @@
         <v>147</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>338</v>
+        <v>148</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>273</v>
@@ -4016,7 +3697,7 @@
         <v>149</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>339</v>
+        <v>150</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>273</v>
@@ -4039,7 +3720,7 @@
         <v>151</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>273</v>
@@ -4062,7 +3743,7 @@
         <v>153</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>341</v>
+        <v>154</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>273</v>
@@ -4085,7 +3766,7 @@
         <v>155</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>273</v>
@@ -4108,7 +3789,7 @@
         <v>157</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>343</v>
+        <v>158</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>273</v>
@@ -4131,7 +3812,7 @@
         <v>159</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>273</v>
@@ -4154,7 +3835,7 @@
         <v>161</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>345</v>
+        <v>162</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>273</v>
@@ -4177,7 +3858,7 @@
         <v>163</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>346</v>
+        <v>164</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>273</v>
@@ -4200,7 +3881,7 @@
         <v>165</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>273</v>
@@ -4223,7 +3904,7 @@
         <v>167</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>348</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>273</v>
@@ -4246,7 +3927,7 @@
         <v>169</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>349</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>273</v>
@@ -4269,7 +3950,7 @@
         <v>171</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>273</v>
@@ -4292,7 +3973,7 @@
         <v>173</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>351</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>273</v>
@@ -4315,7 +3996,7 @@
         <v>175</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>352</v>
+        <v>176</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>273</v>
@@ -4338,7 +4019,7 @@
         <v>177</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>353</v>
+        <v>178</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>273</v>
@@ -4361,7 +4042,7 @@
         <v>179</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>273</v>
@@ -4384,7 +4065,7 @@
         <v>181</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>355</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>273</v>
@@ -4407,7 +4088,7 @@
         <v>183</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>356</v>
+        <v>184</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>273</v>
@@ -4430,7 +4111,7 @@
         <v>185</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>357</v>
+        <v>186</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>273</v>
@@ -4453,7 +4134,7 @@
         <v>187</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>273</v>
@@ -4476,7 +4157,7 @@
         <v>189</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>273</v>
@@ -4499,7 +4180,7 @@
         <v>191</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>360</v>
+        <v>192</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>273</v>
@@ -4522,7 +4203,7 @@
         <v>193</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>361</v>
+        <v>194</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>273</v>
@@ -4545,7 +4226,7 @@
         <v>195</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>362</v>
+        <v>196</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>273</v>
@@ -4568,7 +4249,7 @@
         <v>197</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>363</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>273</v>
@@ -4591,7 +4272,7 @@
         <v>199</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>364</v>
+        <v>200</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>273</v>
@@ -4614,7 +4295,7 @@
         <v>201</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>365</v>
+        <v>202</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>273</v>
@@ -4637,7 +4318,7 @@
         <v>203</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>366</v>
+        <v>204</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>273</v>
@@ -4660,7 +4341,7 @@
         <v>205</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>367</v>
+        <v>206</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>273</v>
@@ -4683,7 +4364,7 @@
         <v>207</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>273</v>
@@ -4706,7 +4387,7 @@
         <v>209</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>273</v>
@@ -4729,7 +4410,7 @@
         <v>211</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>370</v>
+        <v>212</v>
       </c>
       <c r="F93" t="s" s="2">
         <v>273</v>
@@ -4752,7 +4433,7 @@
         <v>213</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>371</v>
+        <v>214</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>273</v>
@@ -4769,13 +4450,13 @@
         <v>240</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>218</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>373</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>273</v>
@@ -4792,13 +4473,13 @@
         <v>240</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>220</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>374</v>
+        <v>221</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>273</v>
@@ -4815,13 +4496,13 @@
         <v>240</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>222</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>375</v>
+        <v>223</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>273</v>
@@ -4838,13 +4519,13 @@
         <v>240</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>224</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>376</v>
+        <v>225</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>273</v>
@@ -4861,13 +4542,13 @@
         <v>240</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>226</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>377</v>
+        <v>227</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>273</v>
@@ -4884,13 +4565,13 @@
         <v>240</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>228</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>378</v>
+        <v>229</v>
       </c>
       <c r="F100" t="s" s="2">
         <v>273</v>
@@ -4907,13 +4588,13 @@
         <v>240</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>230</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>273</v>
@@ -4930,13 +4611,13 @@
         <v>240</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>232</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>380</v>
+        <v>233</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>273</v>
@@ -4953,13 +4634,13 @@
         <v>240</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>234</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>381</v>
+        <v>235</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>273</v>
@@ -4976,13 +4657,13 @@
         <v>240</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>236</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>382</v>
+        <v>237</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>273</v>
@@ -4999,13 +4680,13 @@
         <v>240</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>372</v>
+        <v>282</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>238</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>273</v>
@@ -5028,7 +4709,7 @@
         <v>241</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>384</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>273</v>
@@ -5051,7 +4732,7 @@
         <v>243</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>385</v>
+        <v>244</v>
       </c>
       <c r="F107" t="s" s="2">
         <v>273</v>
@@ -5074,7 +4755,7 @@
         <v>245</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>386</v>
+        <v>246</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>273</v>
@@ -5212,7 +4893,7 @@
         <v>257</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="F114" t="s" s="2">
         <v>273</v>
@@ -5235,7 +4916,7 @@
         <v>259</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="F115" t="s" s="2">
         <v>273</v>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="286">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -841,121 +841,37 @@
     <t>http://loinc.org|2.78</t>
   </si>
   <si>
-    <t>displayLanguage</t>
-  </si>
-  <si>
-    <t>en-US,en;q=0.9</t>
-  </si>
-  <si>
     <t>warning-draft</t>
   </si>
   <si>
     <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-ElementTerminology|0.1.0</t>
   </si>
   <si>
-    <t>includeDesignations</t>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
     <t>http://snomed.info/sct/999991001000101/version/20240701</t>
-  </si>
-  <si>
-    <t>Allergic disposition</t>
-  </si>
-  <si>
-    <t>Body temperature</t>
-  </si>
-  <si>
-    <t>Level of consciousness</t>
-  </si>
-  <si>
-    <t>Cyanosis</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Abrasion</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
-    <t>Second degree burn injury</t>
-  </si>
-  <si>
-    <t>Concussion injury of brain</t>
-  </si>
-  <si>
-    <t>Contusion</t>
-  </si>
-  <si>
-    <t>Fracture of bone</t>
-  </si>
-  <si>
-    <t>Closed fracture</t>
-  </si>
-  <si>
-    <t>Open wound</t>
-  </si>
-  <si>
-    <t>Traumatic or non-traumatic injury</t>
-  </si>
-  <si>
-    <t>Injury caused by animal</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>Struck by firearm discharge</t>
-  </si>
-  <si>
-    <t>Assault</t>
-  </si>
-  <si>
-    <t>Sexual assault</t>
-  </si>
-  <si>
-    <t>Traumatic event</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Employment detail</t>
-  </si>
-  <si>
-    <t>Late effect of motor vehicle accident</t>
   </si>
   <si>
     <t>2.78</t>
@@ -2290,7 +2206,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2357,31 +2273,15 @@
         <v>274</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2391,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2399,30 +2299,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>271</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="2">
         <v>55</v>
@@ -2437,15 +2337,15 @@
         <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>55</v>
@@ -2460,15 +2360,15 @@
         <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>55</v>
@@ -2483,15 +2383,15 @@
         <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>55</v>
@@ -2506,15 +2406,15 @@
         <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s" s="2">
         <v>55</v>
@@ -2529,15 +2429,15 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>55</v>
@@ -2552,15 +2452,15 @@
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>55</v>
@@ -2575,15 +2475,15 @@
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>55</v>
@@ -2598,15 +2498,15 @@
         <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>55</v>
@@ -2615,21 +2515,21 @@
         <v>5</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>55</v>
@@ -2638,867 +2538,821 @@
         <v>5</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>287</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>55</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>289</v>
+        <v>105</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>291</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>293</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>298</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>299</v>
+        <v>171</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>301</v>
+        <v>179</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>302</v>
+        <v>181</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>303</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>304</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>306</v>
+        <v>203</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>244</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>310</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>311</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>267</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="D47" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="E47" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="E48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -34,838 +34,841 @@
     <t>Version</t>
   </si>
   <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SILPH___Element_Terminology__VS_</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>SILPH - Element Terminology (VS)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2025-11-04T05:19:01+00:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>UP Manila - National Institutes of Health - National Telehealth Center</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>UP Manila - National Institutes of Health - National Telehealth Center (https://github.com/UPM-NTHC/PH-RoadSafetyIG)</t>
+  </si>
+  <si>
+    <t>PH Road Safety IG Repository (https://github.com/UPM-NTHC/PH-RoadSafetyIG)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>SILPH Value Set for Element Terminology</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>INJURYFRONT</t>
+  </si>
+  <si>
+    <t>Site of Injury/Pain - Front Part of Body</t>
+  </si>
+  <si>
+    <t>INJURYBACK</t>
+  </si>
+  <si>
+    <t>Site of Injury/Pain - Back Part of Body</t>
+  </si>
+  <si>
+    <t>RRFREMARKS</t>
+  </si>
+  <si>
+    <t>Run Report Form Remarks</t>
+  </si>
+  <si>
+    <t>MVA-COLLISION</t>
+  </si>
+  <si>
+    <t>FOR TRANSPORT/VEHICULAR ACCIDENT ONLY (Collision; Non-Collision)</t>
+  </si>
+  <si>
+    <t>PATIENTVEHICLE</t>
+  </si>
+  <si>
+    <t>Vehicles Involved: Patient's Vehicle</t>
+  </si>
+  <si>
+    <t>OTHERVEHICLE</t>
+  </si>
+  <si>
+    <t>Other Vehicle/Object Involved (for COLLISION accident ONLY)</t>
+  </si>
+  <si>
+    <t>PATIENTPOSITION</t>
+  </si>
+  <si>
+    <t>Position of Patient</t>
+  </si>
+  <si>
+    <t>PLACEOCCURRENCE</t>
+  </si>
+  <si>
+    <t>Place of Occurrence</t>
+  </si>
+  <si>
+    <t>ER_OUTPATIENT_OUTCOME</t>
+  </si>
+  <si>
+    <t>ER/Outpatient Outcome</t>
+  </si>
+  <si>
+    <t>INPATIENT_OUTCOME</t>
+  </si>
+  <si>
+    <t>Inpatient Outcome</t>
+  </si>
+  <si>
+    <t>COLLISIONTYPE</t>
+  </si>
+  <si>
+    <t>Collision Type</t>
+  </si>
+  <si>
+    <t>COORDINATIONDONE</t>
+  </si>
+  <si>
+    <t>Was Transport Coordinated with Receiving Hospital?</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem</t>
+  </si>
+  <si>
+    <t>405796007</t>
+  </si>
+  <si>
+    <t>Time of call for help (observable entity)</t>
+  </si>
+  <si>
+    <t>405798008</t>
+  </si>
+  <si>
+    <t>Time of arrival of emergency services (observable entity)</t>
+  </si>
+  <si>
+    <t>405799000</t>
+  </si>
+  <si>
+    <t>Time of arrival at hospital (observable entity)</t>
+  </si>
+  <si>
+    <t>1269489004</t>
+  </si>
+  <si>
+    <t>Chief complaint (observable entity)</t>
+  </si>
+  <si>
+    <t>398099009</t>
+  </si>
+  <si>
+    <t>Street address (observable entity)</t>
+  </si>
+  <si>
+    <t>397663001</t>
+  </si>
+  <si>
+    <t>Referral source (finding)</t>
+  </si>
+  <si>
+    <t>184096005</t>
+  </si>
+  <si>
+    <t>Patient surname (observable entity)</t>
+  </si>
+  <si>
+    <t>184095009</t>
+  </si>
+  <si>
+    <t>Patient forename (observable entity)</t>
+  </si>
+  <si>
+    <t>405622006</t>
+  </si>
+  <si>
+    <t>Patient middle name (observable entity)</t>
+  </si>
+  <si>
+    <t>397669002</t>
+  </si>
+  <si>
+    <t>Age (qualifier value)</t>
+  </si>
+  <si>
+    <t>184100006</t>
+  </si>
+  <si>
+    <t>Patient sex (observable entity)</t>
+  </si>
+  <si>
+    <t>734005006</t>
+  </si>
+  <si>
+    <t>Telephone number (property) (qualifier value)</t>
+  </si>
+  <si>
+    <t>417662000</t>
+  </si>
+  <si>
+    <t>History of clinical finding in subject (situation)</t>
+  </si>
+  <si>
+    <t>513881000000106</t>
+  </si>
+  <si>
+    <t>Current medication as reported by patient (observable entity)</t>
+  </si>
+  <si>
+    <t>609328004</t>
+  </si>
+  <si>
+    <t>Allergic disposition (finding)</t>
+  </si>
+  <si>
+    <t>86290005</t>
+  </si>
+  <si>
+    <t>Respiratory rate (observable entity)</t>
+  </si>
+  <si>
+    <t>248582003</t>
+  </si>
+  <si>
+    <t>Rhythm of respiration (observable entity)</t>
+  </si>
+  <si>
+    <t>52653008</t>
+  </si>
+  <si>
+    <t>Respiratory sounds (observable entity)</t>
+  </si>
+  <si>
+    <t>78564009</t>
+  </si>
+  <si>
+    <t>Heart rate measured at systemic artery (observable entity)</t>
+  </si>
+  <si>
+    <t>364095004</t>
+  </si>
+  <si>
+    <t>Pulse rhythm (observable entity)</t>
+  </si>
+  <si>
+    <t>366201008</t>
+  </si>
+  <si>
+    <t>Finding of pulse volume (finding)</t>
+  </si>
+  <si>
+    <t>271649006</t>
+  </si>
+  <si>
+    <t>Systolic blood pressure (observable entity)</t>
+  </si>
+  <si>
+    <t>271650006</t>
+  </si>
+  <si>
+    <t>Diastolic blood pressure (observable entity)</t>
+  </si>
+  <si>
+    <t>386725007</t>
+  </si>
+  <si>
+    <t>Body temperature (observable entity)</t>
+  </si>
+  <si>
+    <t>6942003</t>
+  </si>
+  <si>
+    <t>Level of consciousness (observable entity)</t>
+  </si>
+  <si>
+    <t>271733001</t>
+  </si>
+  <si>
+    <t>Pupil reaction (observable entity)</t>
+  </si>
+  <si>
+    <t>3415004</t>
+  </si>
+  <si>
+    <t>Cyanosis (finding)</t>
+  </si>
+  <si>
+    <t>281395000</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Score eye opening subscore (observable entity)</t>
+  </si>
+  <si>
+    <t>281397008</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale verbal response subscore (observable entity)</t>
+  </si>
+  <si>
+    <t>281396004</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale motor response subscore (observable entity)</t>
+  </si>
+  <si>
+    <t>248241002</t>
+  </si>
+  <si>
+    <t>Glasgow coma score (observable entity)</t>
+  </si>
+  <si>
+    <t>55607006</t>
+  </si>
+  <si>
+    <t>Problem (finding)</t>
+  </si>
+  <si>
+    <t>119270007</t>
+  </si>
+  <si>
+    <t>Management procedure (procedure)</t>
+  </si>
+  <si>
+    <t>397897005</t>
+  </si>
+  <si>
+    <t>Paramedic (occupation)</t>
+  </si>
+  <si>
+    <t>159738005</t>
+  </si>
+  <si>
+    <t>Ambulanceman (occupation)</t>
+  </si>
+  <si>
+    <t>22515006</t>
+  </si>
+  <si>
+    <t>Medical Assistant (occupation)</t>
+  </si>
+  <si>
+    <t>36030000</t>
+  </si>
+  <si>
+    <t>Transport vehicle, device (physical object)</t>
+  </si>
+  <si>
+    <t>184107009</t>
+  </si>
+  <si>
+    <t>Patient hospital number (observable entity)</t>
+  </si>
+  <si>
+    <t>722248002</t>
+  </si>
+  <si>
+    <t>Patient hospital visit number (observable entity)</t>
+  </si>
+  <si>
+    <t>116154003</t>
+  </si>
+  <si>
+    <t>Patient (person)</t>
+  </si>
+  <si>
+    <t>184099003</t>
+  </si>
+  <si>
+    <t>Date of birth (observable entity)</t>
+  </si>
+  <si>
+    <t>439771001</t>
+  </si>
+  <si>
+    <t>Date of event (observable entity)</t>
+  </si>
+  <si>
+    <t>263501003</t>
+  </si>
+  <si>
+    <t>Time of onset (observable entity)</t>
+  </si>
+  <si>
+    <t>406543005</t>
+  </si>
+  <si>
+    <t>Date of visit (observable entity)</t>
+  </si>
+  <si>
+    <t>406544004</t>
+  </si>
+  <si>
+    <t>Time of visit (observable entity)</t>
+  </si>
+  <si>
+    <t>386308007</t>
+  </si>
+  <si>
+    <t>First aid (procedure)</t>
+  </si>
+  <si>
+    <t>262519004</t>
+  </si>
+  <si>
+    <t>Multiple injuries (disorder)</t>
+  </si>
+  <si>
+    <t>399963005</t>
+  </si>
+  <si>
+    <t>Abrasion (disorder)</t>
+  </si>
+  <si>
+    <t>284554003</t>
+  </si>
+  <si>
+    <t>Avulsion - injury (disorder)</t>
+  </si>
+  <si>
+    <t>125666000</t>
+  </si>
+  <si>
+    <t>Burn (disorder)</t>
+  </si>
+  <si>
+    <t>77140003</t>
+  </si>
+  <si>
+    <t>First degree burn injury (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>46541008</t>
+  </si>
+  <si>
+    <t>Second degree burn injury (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>80247002</t>
+  </si>
+  <si>
+    <t>Third degree burn injury (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>770400008</t>
+  </si>
+  <si>
+    <t>Fourth degree burn injury (morphologic abnormality)</t>
+  </si>
+  <si>
+    <t>110030002</t>
+  </si>
+  <si>
+    <t>Concussion injury of brain (disorder)</t>
+  </si>
+  <si>
+    <t>125667009</t>
+  </si>
+  <si>
+    <t>Contusion (disorder)</t>
+  </si>
+  <si>
+    <t>125605004</t>
+  </si>
+  <si>
+    <t>Fracture of bone (disorder)</t>
+  </si>
+  <si>
+    <t>423125000</t>
+  </si>
+  <si>
+    <t>Closed fracture of bone (disorder)</t>
+  </si>
+  <si>
+    <t>397181002</t>
+  </si>
+  <si>
+    <t>Open fracture (disorder)</t>
+  </si>
+  <si>
+    <t>125643001</t>
+  </si>
+  <si>
+    <t>Open wound (disorder)</t>
+  </si>
+  <si>
+    <t>262595009</t>
+  </si>
+  <si>
+    <t>Traumatic amputation (disorder)</t>
+  </si>
+  <si>
+    <t>417163006</t>
+  </si>
+  <si>
+    <t>Traumatic or non-traumatic injury (disorder)</t>
+  </si>
+  <si>
+    <t>242651001</t>
+  </si>
+  <si>
+    <t>Injury caused by animal (disorder)</t>
+  </si>
+  <si>
+    <t>242490006</t>
+  </si>
+  <si>
+    <t>Burning due to contact with hot substance (event)</t>
+  </si>
+  <si>
+    <t>133261000119105</t>
+  </si>
+  <si>
+    <t>Exposure to potentially hazardous substance (event)</t>
+  </si>
+  <si>
+    <t>69129000</t>
+  </si>
+  <si>
+    <t>Struck by sharp object (event)</t>
+  </si>
+  <si>
+    <t>40947009</t>
+  </si>
+  <si>
+    <t>Drowning (event)</t>
+  </si>
+  <si>
+    <t>276746005</t>
+  </si>
+  <si>
+    <t>Environmental event (event)</t>
+  </si>
+  <si>
+    <t>1912002</t>
+  </si>
+  <si>
+    <t>Fall (event)</t>
+  </si>
+  <si>
+    <t>218100007</t>
+  </si>
+  <si>
+    <t>Accident caused by fireworks (event)</t>
+  </si>
+  <si>
+    <t>63409001</t>
+  </si>
+  <si>
+    <t>Struck by firearm discharge (event)</t>
+  </si>
+  <si>
+    <t>212976008</t>
+  </si>
+  <si>
+    <t>Asphyxia by strangulation (event)</t>
+  </si>
+  <si>
+    <t>52684005</t>
+  </si>
+  <si>
+    <t>Assault (event)</t>
+  </si>
+  <si>
+    <t>248110007</t>
+  </si>
+  <si>
+    <t>Sexual assault (event)</t>
+  </si>
+  <si>
+    <t>418161006</t>
+  </si>
+  <si>
+    <t>Vehicle accident (event)</t>
+  </si>
+  <si>
+    <t>773760007</t>
+  </si>
+  <si>
+    <t>Traumatic event (event)</t>
+  </si>
+  <si>
+    <t>274215009</t>
+  </si>
+  <si>
+    <t>Transport accident (event)</t>
+  </si>
+  <si>
+    <t>80943009</t>
+  </si>
+  <si>
+    <t>Risk factor (observable entity)</t>
+  </si>
+  <si>
+    <t>386812007</t>
+  </si>
+  <si>
+    <t>Safety precautions (procedure)</t>
+  </si>
+  <si>
+    <t>307836003</t>
+  </si>
+  <si>
+    <t>Referral by establishment (procedure)</t>
+  </si>
+  <si>
+    <t>118223001</t>
+  </si>
+  <si>
+    <t>Patient status finding (finding)</t>
+  </si>
+  <si>
+    <t>106167005</t>
+  </si>
+  <si>
+    <t>Consciousness related finding (finding)</t>
+  </si>
+  <si>
+    <t>148006</t>
+  </si>
+  <si>
+    <t>Preliminary diagnosis (contextual qualifier) (qualifier value)</t>
+  </si>
+  <si>
+    <t>89100005</t>
+  </si>
+  <si>
+    <t>Final diagnosis (discharge) (contextual qualifier) (qualifier value)</t>
+  </si>
+  <si>
+    <t>159679004</t>
+  </si>
+  <si>
+    <t>Traffic warden (occupation)</t>
+  </si>
+  <si>
+    <t>273887006</t>
+  </si>
+  <si>
+    <t>Triage index (assessment scale)</t>
+  </si>
+  <si>
+    <t>260870009</t>
+  </si>
+  <si>
+    <t>Priority (attribute)</t>
+  </si>
+  <si>
+    <t>278443006</t>
+  </si>
+  <si>
+    <t>Cause of accident type (qualifier value)</t>
+  </si>
+  <si>
+    <t>364703007</t>
+  </si>
+  <si>
+    <t>Employment detail (observable entity)</t>
+  </si>
+  <si>
+    <t>373786007</t>
+  </si>
+  <si>
+    <t>Reasons for treatment delay (finding)</t>
+  </si>
+  <si>
+    <t>218247007</t>
+  </si>
+  <si>
+    <t>Late effect of motor vehicle accident (disorder)</t>
+  </si>
+  <si>
+    <t>408919008</t>
+  </si>
+  <si>
+    <t>Psychosocial care (regime/therapy)</t>
+  </si>
+  <si>
+    <t>360000005</t>
+  </si>
+  <si>
+    <t>Closed circuit television (physical object)</t>
+  </si>
+  <si>
+    <t>167009006</t>
+  </si>
+  <si>
+    <t>Blood ethanol measurement (procedure)</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>30976-5</t>
+  </si>
+  <si>
+    <t>Date received Form</t>
+  </si>
+  <si>
+    <t>69472-9</t>
+  </si>
+  <si>
+    <t>Unit responded [Date and time] Vehicle</t>
+  </si>
+  <si>
+    <t>69475-2</t>
+  </si>
+  <si>
+    <t>Responding unit left the scene with a patient [Date and time] Vehicle</t>
+  </si>
+  <si>
+    <t>11288-8</t>
+  </si>
+  <si>
+    <t>Arrival time documented</t>
+  </si>
+  <si>
+    <t>90123-1</t>
+  </si>
+  <si>
+    <t>Response team leader name</t>
+  </si>
+  <si>
+    <t>11375-3</t>
+  </si>
+  <si>
+    <t>Injury intent</t>
+  </si>
+  <si>
+    <t>95376-0</t>
+  </si>
+  <si>
+    <t>Type of animal exposed to</t>
+  </si>
+  <si>
+    <t>11372-0</t>
+  </si>
+  <si>
+    <t>Injury associated activity</t>
+  </si>
+  <si>
+    <t>74199-1</t>
+  </si>
+  <si>
+    <t>Transferred from another acute care facility [NTDS]</t>
+  </si>
+  <si>
+    <t>74286-6</t>
+  </si>
+  <si>
+    <t>Transport mode to hospital [NTDS]</t>
+  </si>
+  <si>
+    <t>77999-1</t>
+  </si>
+  <si>
+    <t>Case notification comment</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>used-codesystem</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem|0.2.0</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct|http://snomed.info/sct/999991001000101/version/20240701</t>
+  </si>
+  <si>
+    <t>http://loinc.org|2.78</t>
+  </si>
+  <si>
+    <t>warning-draft</t>
+  </si>
+  <si>
+    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-ElementTerminology|0.1.0</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>0.2.0</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>SILPH___Element_Terminology__VS_</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>SILPH - Element Terminology (VS)</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>draft</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2025-11-03T09:29:05+00:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>UP Manila - National Institutes of Health - National Telehealth Center</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>UP Manila - National Institutes of Health - National Telehealth Center (https://github.com/UPM-NTHC/PH-RoadSafetyIG)</t>
-  </si>
-  <si>
-    <t>PH Road Safety IG Repository (https://github.com/UPM-NTHC/PH-RoadSafetyIG)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>SILPH Value Set for Element Terminology</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>INJURYFRONT</t>
-  </si>
-  <si>
-    <t>Site of Injury/Pain - Front Part of Body</t>
-  </si>
-  <si>
-    <t>INJURYBACK</t>
-  </si>
-  <si>
-    <t>Site of Injury/Pain - Back Part of Body</t>
-  </si>
-  <si>
-    <t>RRFREMARKS</t>
-  </si>
-  <si>
-    <t>Run Report Form Remarks</t>
-  </si>
-  <si>
-    <t>MVA-COLLISION</t>
-  </si>
-  <si>
-    <t>FOR TRANSPORT/VEHICULAR ACCIDENT ONLY (Collision; Non-Collision)</t>
-  </si>
-  <si>
-    <t>PATIENTVEHICLE</t>
-  </si>
-  <si>
-    <t>Vehicles Involved: Patient's Vehicle</t>
-  </si>
-  <si>
-    <t>OTHERVEHICLE</t>
-  </si>
-  <si>
-    <t>Other Vehicle/Object Involved (for COLLISION accident ONLY)</t>
-  </si>
-  <si>
-    <t>PATIENTPOSITION</t>
-  </si>
-  <si>
-    <t>Position of Patient</t>
-  </si>
-  <si>
-    <t>PLACEOCCURRENCE</t>
-  </si>
-  <si>
-    <t>Place of Occurrence</t>
-  </si>
-  <si>
-    <t>ER_OUTPATIENT_OUTCOME</t>
-  </si>
-  <si>
-    <t>ER/Outpatient Outcome</t>
-  </si>
-  <si>
-    <t>INPATIENT_OUTCOME</t>
-  </si>
-  <si>
-    <t>Inpatient Outcome</t>
-  </si>
-  <si>
-    <t>COLLISIONTYPE</t>
-  </si>
-  <si>
-    <t>Collision Type</t>
-  </si>
-  <si>
-    <t>COORDINATIONDONE</t>
-  </si>
-  <si>
-    <t>Was Transport Coordinated with Receiving Hospital?</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>System URI</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem</t>
-  </si>
-  <si>
-    <t>405796007</t>
-  </si>
-  <si>
-    <t>Time of call for help (observable entity)</t>
-  </si>
-  <si>
-    <t>405798008</t>
-  </si>
-  <si>
-    <t>Time of arrival of emergency services (observable entity)</t>
-  </si>
-  <si>
-    <t>405799000</t>
-  </si>
-  <si>
-    <t>Time of arrival at hospital (observable entity)</t>
-  </si>
-  <si>
-    <t>1269489004</t>
-  </si>
-  <si>
-    <t>Chief complaint (observable entity)</t>
-  </si>
-  <si>
-    <t>398099009</t>
-  </si>
-  <si>
-    <t>Street address (observable entity)</t>
-  </si>
-  <si>
-    <t>397663001</t>
-  </si>
-  <si>
-    <t>Referral source (finding)</t>
-  </si>
-  <si>
-    <t>184096005</t>
-  </si>
-  <si>
-    <t>Patient surname (observable entity)</t>
-  </si>
-  <si>
-    <t>184095009</t>
-  </si>
-  <si>
-    <t>Patient forename (observable entity)</t>
-  </si>
-  <si>
-    <t>405622006</t>
-  </si>
-  <si>
-    <t>Patient middle name (observable entity)</t>
-  </si>
-  <si>
-    <t>397669002</t>
-  </si>
-  <si>
-    <t>Age (qualifier value)</t>
-  </si>
-  <si>
-    <t>184100006</t>
-  </si>
-  <si>
-    <t>Patient sex (observable entity)</t>
-  </si>
-  <si>
-    <t>734005006</t>
-  </si>
-  <si>
-    <t>Telephone number (property) (qualifier value)</t>
-  </si>
-  <si>
-    <t>417662000</t>
-  </si>
-  <si>
-    <t>History of clinical finding in subject (situation)</t>
-  </si>
-  <si>
-    <t>513881000000106</t>
-  </si>
-  <si>
-    <t>Current medication as reported by patient (observable entity)</t>
-  </si>
-  <si>
-    <t>609328004</t>
-  </si>
-  <si>
-    <t>Allergic disposition (finding)</t>
-  </si>
-  <si>
-    <t>86290005</t>
-  </si>
-  <si>
-    <t>Respiratory rate (observable entity)</t>
-  </si>
-  <si>
-    <t>248582003</t>
-  </si>
-  <si>
-    <t>Rhythm of respiration (observable entity)</t>
-  </si>
-  <si>
-    <t>52653008</t>
-  </si>
-  <si>
-    <t>Respiratory sounds (observable entity)</t>
-  </si>
-  <si>
-    <t>78564009</t>
-  </si>
-  <si>
-    <t>Heart rate measured at systemic artery (observable entity)</t>
-  </si>
-  <si>
-    <t>364095004</t>
-  </si>
-  <si>
-    <t>Pulse rhythm (observable entity)</t>
-  </si>
-  <si>
-    <t>366201008</t>
-  </si>
-  <si>
-    <t>Finding of pulse volume (finding)</t>
-  </si>
-  <si>
-    <t>271649006</t>
-  </si>
-  <si>
-    <t>Systolic blood pressure (observable entity)</t>
-  </si>
-  <si>
-    <t>271650006</t>
-  </si>
-  <si>
-    <t>Diastolic blood pressure (observable entity)</t>
-  </si>
-  <si>
-    <t>386725007</t>
-  </si>
-  <si>
-    <t>Body temperature (observable entity)</t>
-  </si>
-  <si>
-    <t>6942003</t>
-  </si>
-  <si>
-    <t>Level of consciousness (observable entity)</t>
-  </si>
-  <si>
-    <t>271733001</t>
-  </si>
-  <si>
-    <t>Pupil reaction (observable entity)</t>
-  </si>
-  <si>
-    <t>3415004</t>
-  </si>
-  <si>
-    <t>Cyanosis (finding)</t>
-  </si>
-  <si>
-    <t>281395000</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Score eye opening subscore (observable entity)</t>
-  </si>
-  <si>
-    <t>281397008</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale verbal response subscore (observable entity)</t>
-  </si>
-  <si>
-    <t>281396004</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale motor response subscore (observable entity)</t>
-  </si>
-  <si>
-    <t>248241002</t>
-  </si>
-  <si>
-    <t>Glasgow coma score (observable entity)</t>
-  </si>
-  <si>
-    <t>55607006</t>
-  </si>
-  <si>
-    <t>Problem (finding)</t>
-  </si>
-  <si>
-    <t>119270007</t>
-  </si>
-  <si>
-    <t>Management procedure (procedure)</t>
-  </si>
-  <si>
-    <t>397897005</t>
-  </si>
-  <si>
-    <t>Paramedic (occupation)</t>
-  </si>
-  <si>
-    <t>159738005</t>
-  </si>
-  <si>
-    <t>Ambulanceman (occupation)</t>
-  </si>
-  <si>
-    <t>22515006</t>
-  </si>
-  <si>
-    <t>Medical Assistant (occupation)</t>
-  </si>
-  <si>
-    <t>36030000</t>
-  </si>
-  <si>
-    <t>Transport vehicle, device (physical object)</t>
-  </si>
-  <si>
-    <t>184107009</t>
-  </si>
-  <si>
-    <t>Patient hospital number (observable entity)</t>
-  </si>
-  <si>
-    <t>722248002</t>
-  </si>
-  <si>
-    <t>Patient hospital visit number (observable entity)</t>
-  </si>
-  <si>
-    <t>116154003</t>
-  </si>
-  <si>
-    <t>Patient (person)</t>
-  </si>
-  <si>
-    <t>184099003</t>
-  </si>
-  <si>
-    <t>Date of birth (observable entity)</t>
-  </si>
-  <si>
-    <t>439771001</t>
-  </si>
-  <si>
-    <t>Date of event (observable entity)</t>
-  </si>
-  <si>
-    <t>263501003</t>
-  </si>
-  <si>
-    <t>Time of onset (observable entity)</t>
-  </si>
-  <si>
-    <t>406543005</t>
-  </si>
-  <si>
-    <t>Date of visit (observable entity)</t>
-  </si>
-  <si>
-    <t>406544004</t>
-  </si>
-  <si>
-    <t>Time of visit (observable entity)</t>
-  </si>
-  <si>
-    <t>386308007</t>
-  </si>
-  <si>
-    <t>First aid (procedure)</t>
-  </si>
-  <si>
-    <t>262519004</t>
-  </si>
-  <si>
-    <t>Multiple injuries (disorder)</t>
-  </si>
-  <si>
-    <t>399963005</t>
-  </si>
-  <si>
-    <t>Abrasion (disorder)</t>
-  </si>
-  <si>
-    <t>284554003</t>
-  </si>
-  <si>
-    <t>Avulsion - injury (disorder)</t>
-  </si>
-  <si>
-    <t>125666000</t>
-  </si>
-  <si>
-    <t>Burn (disorder)</t>
-  </si>
-  <si>
-    <t>77140003</t>
-  </si>
-  <si>
-    <t>First degree burn injury (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>46541008</t>
-  </si>
-  <si>
-    <t>Second degree burn injury (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>80247002</t>
-  </si>
-  <si>
-    <t>Third degree burn injury (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>770400008</t>
-  </si>
-  <si>
-    <t>Fourth degree burn injury (morphologic abnormality)</t>
-  </si>
-  <si>
-    <t>110030002</t>
-  </si>
-  <si>
-    <t>Concussion injury of brain (disorder)</t>
-  </si>
-  <si>
-    <t>125667009</t>
-  </si>
-  <si>
-    <t>Contusion (disorder)</t>
-  </si>
-  <si>
-    <t>125605004</t>
-  </si>
-  <si>
-    <t>Fracture of bone (disorder)</t>
-  </si>
-  <si>
-    <t>423125000</t>
-  </si>
-  <si>
-    <t>Closed fracture of bone (disorder)</t>
-  </si>
-  <si>
-    <t>397181002</t>
-  </si>
-  <si>
-    <t>Open fracture (disorder)</t>
-  </si>
-  <si>
-    <t>125643001</t>
-  </si>
-  <si>
-    <t>Open wound (disorder)</t>
-  </si>
-  <si>
-    <t>262595009</t>
-  </si>
-  <si>
-    <t>Traumatic amputation (disorder)</t>
-  </si>
-  <si>
-    <t>417163006</t>
-  </si>
-  <si>
-    <t>Traumatic or non-traumatic injury (disorder)</t>
-  </si>
-  <si>
-    <t>242651001</t>
-  </si>
-  <si>
-    <t>Injury caused by animal (disorder)</t>
-  </si>
-  <si>
-    <t>242490006</t>
-  </si>
-  <si>
-    <t>Burning due to contact with hot substance (event)</t>
-  </si>
-  <si>
-    <t>133261000119105</t>
-  </si>
-  <si>
-    <t>Exposure to potentially hazardous substance (event)</t>
-  </si>
-  <si>
-    <t>69129000</t>
-  </si>
-  <si>
-    <t>Struck by sharp object (event)</t>
-  </si>
-  <si>
-    <t>40947009</t>
-  </si>
-  <si>
-    <t>Drowning (event)</t>
-  </si>
-  <si>
-    <t>276746005</t>
-  </si>
-  <si>
-    <t>Environmental event (event)</t>
-  </si>
-  <si>
-    <t>1912002</t>
-  </si>
-  <si>
-    <t>Fall (event)</t>
-  </si>
-  <si>
-    <t>218100007</t>
-  </si>
-  <si>
-    <t>Accident caused by fireworks (event)</t>
-  </si>
-  <si>
-    <t>63409001</t>
-  </si>
-  <si>
-    <t>Struck by firearm discharge (event)</t>
-  </si>
-  <si>
-    <t>212976008</t>
-  </si>
-  <si>
-    <t>Asphyxia by strangulation (event)</t>
-  </si>
-  <si>
-    <t>52684005</t>
-  </si>
-  <si>
-    <t>Assault (event)</t>
-  </si>
-  <si>
-    <t>248110007</t>
-  </si>
-  <si>
-    <t>Sexual assault (event)</t>
-  </si>
-  <si>
-    <t>418161006</t>
-  </si>
-  <si>
-    <t>Vehicle accident (event)</t>
-  </si>
-  <si>
-    <t>773760007</t>
-  </si>
-  <si>
-    <t>Traumatic event (event)</t>
-  </si>
-  <si>
-    <t>274215009</t>
-  </si>
-  <si>
-    <t>Transport accident (event)</t>
-  </si>
-  <si>
-    <t>80943009</t>
-  </si>
-  <si>
-    <t>Risk factor (observable entity)</t>
-  </si>
-  <si>
-    <t>386812007</t>
-  </si>
-  <si>
-    <t>Safety precautions (procedure)</t>
-  </si>
-  <si>
-    <t>307836003</t>
-  </si>
-  <si>
-    <t>Referral by establishment (procedure)</t>
-  </si>
-  <si>
-    <t>118223001</t>
-  </si>
-  <si>
-    <t>Patient status finding (finding)</t>
-  </si>
-  <si>
-    <t>106167005</t>
-  </si>
-  <si>
-    <t>Consciousness related finding (finding)</t>
-  </si>
-  <si>
-    <t>148006</t>
-  </si>
-  <si>
-    <t>Preliminary diagnosis (contextual qualifier) (qualifier value)</t>
-  </si>
-  <si>
-    <t>89100005</t>
-  </si>
-  <si>
-    <t>Final diagnosis (discharge) (contextual qualifier) (qualifier value)</t>
-  </si>
-  <si>
-    <t>159679004</t>
-  </si>
-  <si>
-    <t>Traffic warden (occupation)</t>
-  </si>
-  <si>
-    <t>273887006</t>
-  </si>
-  <si>
-    <t>Triage index (assessment scale)</t>
-  </si>
-  <si>
-    <t>260870009</t>
-  </si>
-  <si>
-    <t>Priority (attribute)</t>
-  </si>
-  <si>
-    <t>278443006</t>
-  </si>
-  <si>
-    <t>Cause of accident type (qualifier value)</t>
-  </si>
-  <si>
-    <t>364703007</t>
-  </si>
-  <si>
-    <t>Employment detail (observable entity)</t>
-  </si>
-  <si>
-    <t>373786007</t>
-  </si>
-  <si>
-    <t>Reasons for treatment delay (finding)</t>
-  </si>
-  <si>
-    <t>218247007</t>
-  </si>
-  <si>
-    <t>Late effect of motor vehicle accident (disorder)</t>
-  </si>
-  <si>
-    <t>408919008</t>
-  </si>
-  <si>
-    <t>Psychosocial care (regime/therapy)</t>
-  </si>
-  <si>
-    <t>360000005</t>
-  </si>
-  <si>
-    <t>Closed circuit television (physical object)</t>
-  </si>
-  <si>
-    <t>167009006</t>
-  </si>
-  <si>
-    <t>Blood ethanol measurement (procedure)</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>30976-5</t>
-  </si>
-  <si>
-    <t>Date received Form</t>
-  </si>
-  <si>
-    <t>69472-9</t>
-  </si>
-  <si>
-    <t>Unit responded [Date and time] Vehicle</t>
-  </si>
-  <si>
-    <t>69475-2</t>
-  </si>
-  <si>
-    <t>Responding unit left the scene with a patient [Date and time] Vehicle</t>
-  </si>
-  <si>
-    <t>11288-8</t>
-  </si>
-  <si>
-    <t>Arrival time documented</t>
-  </si>
-  <si>
-    <t>90123-1</t>
-  </si>
-  <si>
-    <t>Response team leader name</t>
-  </si>
-  <si>
-    <t>11375-3</t>
-  </si>
-  <si>
-    <t>Injury intent</t>
-  </si>
-  <si>
-    <t>95376-0</t>
-  </si>
-  <si>
-    <t>Type of animal exposed to</t>
-  </si>
-  <si>
-    <t>11372-0</t>
-  </si>
-  <si>
-    <t>Injury associated activity</t>
-  </si>
-  <si>
-    <t>74199-1</t>
-  </si>
-  <si>
-    <t>Transferred from another acute care facility [NTDS]</t>
-  </si>
-  <si>
-    <t>74286-6</t>
-  </si>
-  <si>
-    <t>Transport mode to hospital [NTDS]</t>
-  </si>
-  <si>
-    <t>77999-1</t>
-  </si>
-  <si>
-    <t>Case notification comment</t>
-  </si>
-  <si>
-    <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>used-codesystem</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/CodeSystem|0.2.0</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct|http://snomed.info/sct/999991001000101/version/20240701</t>
-  </si>
-  <si>
-    <t>http://loinc.org|2.78</t>
-  </si>
-  <si>
-    <t>warning-draft</t>
-  </si>
-  <si>
-    <t>http://www.roadsafetyph.doh.gov.ph/ValueSet/SILPH-ElementTerminology|0.1.0</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>false</t>
@@ -2328,7 +2331,7 @@
         <v>55</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D2" t="s" s="2">
         <v>29</v>
@@ -2337,10 +2340,10 @@
         <v>30</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
@@ -2351,7 +2354,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>31</v>
@@ -2360,10 +2363,10 @@
         <v>32</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
@@ -2374,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>33</v>
@@ -2383,10 +2386,10 @@
         <v>34</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
@@ -2397,7 +2400,7 @@
         <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>35</v>
@@ -2406,10 +2409,10 @@
         <v>36</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
@@ -2420,7 +2423,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>37</v>
@@ -2429,10 +2432,10 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
@@ -2443,7 +2446,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>39</v>
@@ -2452,10 +2455,10 @@
         <v>40</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
@@ -2466,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>41</v>
@@ -2475,10 +2478,10 @@
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
@@ -2489,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>43</v>
@@ -2498,10 +2501,10 @@
         <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
@@ -2512,7 +2515,7 @@
         <v>55</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>49</v>
@@ -2521,10 +2524,10 @@
         <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11">
@@ -2535,7 +2538,7 @@
         <v>55</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>5</v>
+        <v>283</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>51</v>
@@ -2544,10 +2547,10 @@
         <v>52</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
@@ -2558,7 +2561,7 @@
         <v>244</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>84</v>
@@ -2567,10 +2570,10 @@
         <v>85</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13">
@@ -2581,7 +2584,7 @@
         <v>244</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>102</v>
@@ -2590,10 +2593,10 @@
         <v>103</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
@@ -2604,7 +2607,7 @@
         <v>244</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>104</v>
@@ -2613,10 +2616,10 @@
         <v>105</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
@@ -2627,7 +2630,7 @@
         <v>244</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>108</v>
@@ -2636,10 +2639,10 @@
         <v>109</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16">
@@ -2650,7 +2653,7 @@
         <v>244</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>118</v>
@@ -2659,10 +2662,10 @@
         <v>119</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17">
@@ -2673,7 +2676,7 @@
         <v>244</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>134</v>
@@ -2682,10 +2685,10 @@
         <v>135</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18">
@@ -2696,7 +2699,7 @@
         <v>244</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>150</v>
@@ -2705,10 +2708,10 @@
         <v>151</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19">
@@ -2719,7 +2722,7 @@
         <v>244</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>154</v>
@@ -2728,10 +2731,10 @@
         <v>155</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20">
@@ -2742,7 +2745,7 @@
         <v>244</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>158</v>
@@ -2751,10 +2754,10 @@
         <v>159</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21">
@@ -2765,7 +2768,7 @@
         <v>244</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>164</v>
@@ -2774,10 +2777,10 @@
         <v>165</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22">
@@ -2788,7 +2791,7 @@
         <v>244</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>166</v>
@@ -2797,10 +2800,10 @@
         <v>167</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23">
@@ -2811,7 +2814,7 @@
         <v>244</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>168</v>
@@ -2820,10 +2823,10 @@
         <v>169</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24">
@@ -2834,7 +2837,7 @@
         <v>244</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>170</v>
@@ -2843,10 +2846,10 @@
         <v>171</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25">
@@ -2857,7 +2860,7 @@
         <v>244</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>174</v>
@@ -2866,10 +2869,10 @@
         <v>175</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="26">
@@ -2880,7 +2883,7 @@
         <v>244</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>178</v>
@@ -2889,10 +2892,10 @@
         <v>179</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
@@ -2903,7 +2906,7 @@
         <v>244</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>180</v>
@@ -2912,10 +2915,10 @@
         <v>181</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
@@ -2926,7 +2929,7 @@
         <v>244</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>192</v>
@@ -2935,10 +2938,10 @@
         <v>193</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2952,7 @@
         <v>244</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>196</v>
@@ -2958,10 +2961,10 @@
         <v>197</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
@@ -2972,7 +2975,7 @@
         <v>244</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>200</v>
@@ -2981,10 +2984,10 @@
         <v>201</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2998,7 @@
         <v>244</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>202</v>
@@ -3004,10 +3007,10 @@
         <v>203</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
@@ -3018,7 +3021,7 @@
         <v>244</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>206</v>
@@ -3027,10 +3030,10 @@
         <v>207</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33">
@@ -3041,7 +3044,7 @@
         <v>244</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>228</v>
@@ -3050,10 +3053,10 @@
         <v>229</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34">
@@ -3064,7 +3067,7 @@
         <v>244</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>232</v>
@@ -3073,10 +3076,10 @@
         <v>233</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35">
@@ -3087,7 +3090,7 @@
         <v>244</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>236</v>
@@ -3096,10 +3099,10 @@
         <v>237</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
@@ -3110,7 +3113,7 @@
         <v>267</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>245</v>
@@ -3119,10 +3122,10 @@
         <v>246</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37">
@@ -3133,7 +3136,7 @@
         <v>267</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>247</v>
@@ -3142,10 +3145,10 @@
         <v>248</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
@@ -3156,7 +3159,7 @@
         <v>267</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>249</v>
@@ -3165,10 +3168,10 @@
         <v>250</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39">
@@ -3179,7 +3182,7 @@
         <v>267</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>251</v>
@@ -3188,10 +3191,10 @@
         <v>252</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -3202,7 +3205,7 @@
         <v>267</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>253</v>
@@ -3211,10 +3214,10 @@
         <v>254</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41">
@@ -3225,7 +3228,7 @@
         <v>267</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>255</v>
@@ -3234,10 +3237,10 @@
         <v>256</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42">
@@ -3248,7 +3251,7 @@
         <v>267</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>257</v>
@@ -3257,10 +3260,10 @@
         <v>258</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
@@ -3271,7 +3274,7 @@
         <v>267</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>259</v>
@@ -3280,10 +3283,10 @@
         <v>260</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
@@ -3294,7 +3297,7 @@
         <v>267</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>261</v>
@@ -3303,10 +3306,10 @@
         <v>262</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45">
@@ -3317,7 +3320,7 @@
         <v>267</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>263</v>
@@ -3326,10 +3329,10 @@
         <v>264</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46">
@@ -3340,7 +3343,7 @@
         <v>267</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>265</v>
@@ -3349,10 +3352,10 @@
         <v>266</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-SILPH-ElementTerminologyVS.xlsx
+++ b/ValueSet-SILPH-ElementTerminologyVS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
